--- a/Preregistration-Spreadsheet.xlsx
+++ b/Preregistration-Spreadsheet.xlsx
@@ -423,10 +423,37 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
